--- a/documnets/外部設計書_ヨッシーアイランド.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645479D9-B16F-44FD-B5D7-8545851C1E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389D5D2-77B5-48B6-BD93-E96B1CFB9077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1590" windowWidth="11490" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="20" r:id="rId1"/>
     <sheet name="新規登録ページ" sheetId="21" r:id="rId2"/>
     <sheet name="管理者ログインページ" sheetId="22" r:id="rId3"/>
-    <sheet name="診断ページ" sheetId="28" r:id="rId4"/>
-    <sheet name="トップページ（カレンダー）" sheetId="24" r:id="rId5"/>
+    <sheet name="トップページ（カレンダー）" sheetId="24" r:id="rId4"/>
+    <sheet name="診断ページ" sheetId="28" r:id="rId5"/>
     <sheet name="診断結果ページ " sheetId="27" r:id="rId6"/>
     <sheet name="トップページ（管理者）" sheetId="26" r:id="rId7"/>
     <sheet name="閲覧ページ（管理者）" sheetId="23" r:id="rId8"/>
@@ -25,7 +25,7 @@
     <sheet name="フッター" sheetId="18" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'トップページ（カレンダー）'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'トップページ（カレンダー）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'トップページ（管理者）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">フッター!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">ヘッダー!$1:$4</definedName>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'閲覧ページ（管理者）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">管理者ログインページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">新規登録ページ!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">診断ページ!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">診断ページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'診断結果ページ '!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -1756,7 +1756,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>70037</xdr:colOff>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>98054</xdr:rowOff>
     </xdr:to>
@@ -1773,8 +1773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7654175" y="1594038"/>
-          <a:ext cx="2359962" cy="409016"/>
+          <a:off x="7589881" y="1594038"/>
+          <a:ext cx="2482806" cy="409016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,7 +1862,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
+            <a:t>ヘッダー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1922,10 +1922,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1992,73 +1991,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="275653" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53A5AD6-C40C-498C-9B25-892C9384B2EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3632947" y="1742515"/>
-          <a:ext cx="275653" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -2246,6 +2178,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="281103" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AD4E04-54AE-482B-B374-17B68440B3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3976688" y="3083720"/>
+          <a:ext cx="281103" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2254,15 +2248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>148441</xdr:colOff>
+      <xdr:colOff>235032</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123700</xdr:rowOff>
+      <xdr:rowOff>98960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>164088</xdr:colOff>
+      <xdr:colOff>250679</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>105510</xdr:rowOff>
+      <xdr:rowOff>80770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2277,7 +2271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6135584" y="5133603"/>
+          <a:off x="6222175" y="5108863"/>
           <a:ext cx="3553504" cy="352913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2478,129 +2472,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>　入力欄</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>14005</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922A04F7-E205-4E7A-A58B-E95B3FF05BFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4157380" y="1538009"/>
-          <a:ext cx="2129680" cy="507066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>154078</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>140075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>70035</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98053</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C6A860-63DE-4AC6-8889-A9C502E5FFA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6783478" y="5283575"/>
-          <a:ext cx="2125757" cy="338978"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2973,6 +2844,128 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>140072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>236028</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1F57FF-F6C8-4506-86F6-23F14344A54A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4566398" y="1708896"/>
+          <a:ext cx="2113012" cy="507066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ヘッダー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>126067</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>271745</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAC098F-28BF-4358-9D3B-27445120D55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7129743" y="5420845"/>
+          <a:ext cx="2106708" cy="344581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3203,67 +3196,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>14005</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7326BBE-8C0B-44C0-BFDC-EC22CE30D3D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4157380" y="1538009"/>
-          <a:ext cx="2129680" cy="507066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>224115</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -3315,10 +3247,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3565,10 +3496,942 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42023</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>194006</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2839828-D8E1-4DDC-B25B-B94BF1BEE190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524376" y="1526801"/>
+          <a:ext cx="2113012" cy="507066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ヘッダー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8089B5AF-FA75-4024-AB0A-1B61A949B6D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1558019" y="1906604"/>
+          <a:ext cx="7512504" cy="4175789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460C8564-78A0-4381-B0FE-7B6CB613BDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2526846" y="6408965"/>
+          <a:ext cx="1408340" cy="421821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>診断</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB3CBC0-9E56-44DE-A93D-CFB2C5BC9688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4433207" y="6422571"/>
+          <a:ext cx="1752600" cy="421821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>診断結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>122462</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5416DC51-36DD-455A-96A4-5481171857C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6656612" y="6422572"/>
+          <a:ext cx="1752600" cy="421821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>コメント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF3FCB9-C518-4CDF-B4C1-B205DB883F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9568543" y="1211036"/>
+          <a:ext cx="996042" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC71B1A3-E9CC-4768-8EF4-CDABAEBAB031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9405258" y="1143000"/>
+          <a:ext cx="1172935" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B48772-CDD8-49D2-B291-DDEEAAC7FD55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5026479" y="1973036"/>
+          <a:ext cx="828674" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162D189E-7A14-482A-AE96-1BE6E19BFF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1875065" y="2898321"/>
+          <a:ext cx="6919231" cy="3061608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D03C63B-C524-48F3-8444-F956655A13F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2359479" y="2027464"/>
+          <a:ext cx="1947182" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3748F98-F5A0-4033-9AE0-19A66838AC72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6366783" y="2027463"/>
+          <a:ext cx="2124075" cy="802821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>235226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489A739F-42E9-499B-847D-2030F727EA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1265464"/>
+          <a:ext cx="2113012" cy="507066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ヘッダー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>92850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BEE89B-6FD5-4F4E-8577-728BDDF03A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8327571" y="6789964"/>
+          <a:ext cx="2106708" cy="344581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3684,10 +4547,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6615,817 +7477,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>176894</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8089B5AF-FA75-4024-AB0A-1B61A949B6D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1558019" y="1906604"/>
-          <a:ext cx="7512504" cy="4175789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460C8564-78A0-4381-B0FE-7B6CB613BDE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2526846" y="6408965"/>
-          <a:ext cx="1408340" cy="421821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>診断</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB3CBC0-9E56-44DE-A93D-CFB2C5BC9688}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4433207" y="6422571"/>
-          <a:ext cx="1752600" cy="421821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>診断結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>27212</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>122462</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5416DC51-36DD-455A-96A4-5481171857C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6656612" y="6422572"/>
-          <a:ext cx="1752600" cy="421821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>コメント</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C80241-53EE-4472-8141-9BE1A4B0F16F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3092905" y="1034142"/>
-          <a:ext cx="4723038" cy="775607"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
-            <a:t>健康管理アプリ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF3FCB9-C518-4CDF-B4C1-B205DB883F77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9568543" y="1211036"/>
-          <a:ext cx="996042" cy="435428"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC71B1A3-E9CC-4768-8EF4-CDABAEBAB031}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9405258" y="1143000"/>
-          <a:ext cx="1172935" cy="449036"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B48772-CDD8-49D2-B291-DDEEAAC7FD55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5026479" y="1973036"/>
-          <a:ext cx="828674" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" cap="none" spc="0">
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162D189E-7A14-482A-AE96-1BE6E19BFF7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1875065" y="2898321"/>
-          <a:ext cx="6919231" cy="3061608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D03C63B-C524-48F3-8444-F956655A13F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2359479" y="2027464"/>
-          <a:ext cx="1947182" cy="802822"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3748F98-F5A0-4033-9AE0-19A66838AC72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6366783" y="2027463"/>
-          <a:ext cx="2124075" cy="802821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>9</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8964,6 +9015,67 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>261240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC5B601-B9B3-4DFE-A91A-F7C81F9A4352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7739063" y="6524625"/>
+          <a:ext cx="2106708" cy="344581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9037,16 +9149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>24192</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133963</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>126610</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>86590</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225323</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18808</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9061,8 +9173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3615117" y="1467463"/>
-          <a:ext cx="3100873" cy="368264"/>
+          <a:off x="956207" y="1597742"/>
+          <a:ext cx="2587503" cy="367034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9150,10 +9262,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フッター</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9410,6 +9521,67 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40968</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>218254</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F8D4D2-4F5E-48E2-9DE7-E6525E560C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4742016" y="1474839"/>
+          <a:ext cx="2113012" cy="507066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ヘッダー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10788,15 +10960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>3914</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>268395</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10811,8 +10983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="6448425"/>
-          <a:ext cx="266700" cy="371475"/>
+          <a:off x="9868161" y="5850829"/>
+          <a:ext cx="264481" cy="381913"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -10846,15 +11018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>95641</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>162317</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>72678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10869,8 +11041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9591675" y="6886575"/>
-          <a:ext cx="1171576" cy="247650"/>
+          <a:off x="9411874" y="6474260"/>
+          <a:ext cx="1162703" cy="252870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10908,30 +11080,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>43643</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56033</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>169623</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>235688</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182099</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>84276</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>96670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903E3E4A-228C-4B92-B8F2-E446E8E4A82C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40B9B45-7160-47A2-8798-B197BF348CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10939,8 +11106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4461034" y="1602120"/>
-          <a:ext cx="2124654" cy="512588"/>
+          <a:off x="8663835" y="6993699"/>
+          <a:ext cx="2106708" cy="344581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10967,7 +11134,74 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>健康管理（仮）</a:t>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>126469</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>86633</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432B3A1A-4A02-475B-89DF-0673E52F9A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163426" y="1450272"/>
+          <a:ext cx="4653642" cy="775607"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>健康管理アプリ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11300,8 +11534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028EA3C-A4A0-4708-8437-462E7D57BF89}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15862,8 +16096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B7F977-3C49-4D7A-94C2-7868D5646FC6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25047,7 +25281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B7DC55-CEDC-4DC3-BA2D-8F9FD2082F14}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -29606,11 +29840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC1814-85B7-4E75-AFED-55ABB6C3A9CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D97F96-DFEE-4256-9293-C09906732A7E}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29636,7 +29870,9 @@
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="N1" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -29649,7 +29885,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="Y1" s="35" t="s">
+        <v>32</v>
+      </c>
       <c r="Z1" s="35"/>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
@@ -29684,7 +29922,9 @@
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="N2" s="45" t="s">
+        <v>30</v>
+      </c>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
@@ -29697,7 +29937,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
+      <c r="Y2" s="88">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
       <c r="AB2" s="45"/>
@@ -29895,40 +30137,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="23"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -29936,41 +30178,41 @@
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
       <c r="AL9" s="58"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
@@ -29978,41 +30220,41 @@
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="7"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
       <c r="AL10" s="58"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
@@ -30020,41 +30262,41 @@
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
       <c r="AL11" s="58"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
@@ -30062,41 +30304,41 @@
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
       <c r="AL12" s="58"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
@@ -30104,40 +30346,41 @@
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
       <c r="AL13" s="58"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
@@ -30145,40 +30388,41 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
       <c r="AL14" s="58"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
@@ -30186,40 +30430,41 @@
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
       <c r="AL15" s="58"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
@@ -30227,40 +30472,41 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
       <c r="AL16" s="58"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -30268,40 +30514,41 @@
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
       <c r="AL17" s="58"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
@@ -30309,40 +30556,41 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="7"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
       <c r="AL18" s="58"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
@@ -30350,40 +30598,41 @@
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="7"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="58"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
@@ -30391,40 +30640,41 @@
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="7"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="58"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
@@ -30432,40 +30682,41 @@
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="7"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
       <c r="AL21" s="58"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
@@ -30473,40 +30724,41 @@
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
       <c r="AL22" s="58"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
@@ -30514,40 +30766,41 @@
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="7"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
       <c r="AL23" s="58"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
@@ -30555,40 +30808,41 @@
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
       <c r="AL24" s="58"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
@@ -30596,40 +30850,41 @@
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="7"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
       <c r="AL25" s="58"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
@@ -30637,40 +30892,41 @@
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="7"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="58"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
@@ -30678,40 +30934,41 @@
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
       <c r="AL27" s="58"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
@@ -30719,40 +30976,41 @@
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="7"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
       <c r="AL28" s="58"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
@@ -30760,40 +31018,41 @@
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="7"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
       <c r="AL29" s="58"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
@@ -30801,40 +31060,41 @@
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="13"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
       <c r="AL30" s="58"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -30842,39 +31102,41 @@
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="58"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
       <c r="AL31" s="58"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -34150,11 +34412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D97F96-DFEE-4256-9293-C09906732A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC1814-85B7-4E75-AFED-55ABB6C3A9CC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34180,9 +34442,7 @@
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="N1" s="35"/>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -34195,9 +34455,7 @@
         <v>7</v>
       </c>
       <c r="X1" s="35"/>
-      <c r="Y1" s="35" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y1" s="35"/>
       <c r="Z1" s="35"/>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
@@ -34232,9 +34490,7 @@
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="45" t="s">
-        <v>30</v>
-      </c>
+      <c r="N2" s="45"/>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
@@ -34247,9 +34503,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="45"/>
-      <c r="Y2" s="88">
-        <v>44350</v>
-      </c>
+      <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
       <c r="AB2" s="45"/>
@@ -34447,40 +34701,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -34488,41 +34742,41 @@
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="7"/>
       <c r="AL9" s="58"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
@@ -34530,41 +34784,41 @@
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="7"/>
       <c r="AL10" s="58"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
@@ -34572,41 +34826,41 @@
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="7"/>
       <c r="AL11" s="58"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
@@ -34614,41 +34868,41 @@
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="7"/>
       <c r="AL12" s="58"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
@@ -34656,41 +34910,40 @@
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="7"/>
       <c r="AL13" s="58"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
@@ -34698,41 +34951,40 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="7"/>
       <c r="AL14" s="58"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
@@ -34740,41 +34992,40 @@
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="7"/>
       <c r="AL15" s="58"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
@@ -34782,41 +35033,40 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="7"/>
       <c r="AL16" s="58"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -34824,41 +35074,40 @@
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="7"/>
       <c r="AL17" s="58"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
@@ -34866,41 +35115,40 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="7"/>
       <c r="AL18" s="58"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
@@ -34908,41 +35156,40 @@
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="7"/>
       <c r="AL19" s="58"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
@@ -34950,41 +35197,40 @@
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="7"/>
       <c r="AL20" s="58"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
@@ -34992,41 +35238,40 @@
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="7"/>
       <c r="AL21" s="58"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
@@ -35034,41 +35279,40 @@
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="7"/>
       <c r="AL22" s="58"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
@@ -35076,41 +35320,40 @@
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="7"/>
       <c r="AL23" s="58"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
@@ -35118,41 +35361,40 @@
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="7"/>
       <c r="AL24" s="58"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
@@ -35160,41 +35402,40 @@
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="7"/>
       <c r="AL25" s="58"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
@@ -35202,41 +35443,40 @@
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="7"/>
       <c r="AL26" s="58"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
@@ -35244,41 +35484,40 @@
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="7"/>
       <c r="AL27" s="58"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
@@ -35286,41 +35525,40 @@
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="7"/>
       <c r="AL28" s="58"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
@@ -35328,41 +35566,40 @@
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="7"/>
       <c r="AL29" s="58"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
@@ -35370,41 +35607,40 @@
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="13"/>
       <c r="AL30" s="58"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -35412,41 +35648,39 @@
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="58"/>
+      <c r="AK31" s="58"/>
       <c r="AL31" s="58"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -38725,8 +38959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D388540-1D8D-4B1B-A881-9AEFD5537A92}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43090,8 +43324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBC2C2F-A90C-4583-8AAA-10E0485E8609}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView topLeftCell="A13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -47660,8 +47894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF9EA8B-7ADC-4CC9-B157-9FC5BE827C84}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG31" sqref="AG31"/>
+    <sheetView topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52194,8 +52428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABE372C-96BA-48D7-92AF-D15509940D0B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView topLeftCell="A6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A2CFC-F94D-437D-9856-C5D4D61FDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEFE4C9-7921-4DA2-AF31-AD24B9D9CEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1635" windowWidth="11490" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1440" windowWidth="11490" windowHeight="8625" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="30" r:id="rId1"/>
@@ -1246,18 +1246,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>diagnosis</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>診断</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>diagnosis_result</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1477,6 +1469,14 @@
   </si>
   <si>
     <t>resultlist</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>shindan</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>shindan_result</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2378,6 +2378,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2456,35 +2485,6 @@
     <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -16366,7 +16366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE947E-2311-4DF2-8B48-A5A08300A3AE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N74" sqref="N73:N74"/>
     </sheetView>
   </sheetViews>
@@ -16376,146 +16376,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -20906,6 +20906,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -20913,14 +20920,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -20946,146 +20946,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -25460,6 +25460,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -25467,14 +25474,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25500,146 +25500,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -30014,6 +30014,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -30021,14 +30028,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -30054,146 +30054,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -33463,7 +33463,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -34608,6 +34608,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -34615,14 +34622,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -34648,146 +34648,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -39196,6 +39196,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -39203,14 +39210,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -39226,8 +39226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B788AD-A061-4457-942A-4EA5BB794354}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -39236,154 +39236,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="82">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="93">
         <v>44350</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -42751,13 +42751,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="14"/>
@@ -42799,13 +42799,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="14"/>
@@ -42847,13 +42847,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="14"/>
@@ -43862,6 +43862,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -43869,14 +43876,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -43892,8 +43892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8555B00A-DA0A-4729-B7B1-07BF42A5E268}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -43902,146 +43902,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -47109,7 +47109,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -47159,13 +47159,13 @@
         <v>2</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="14"/>
@@ -47209,13 +47209,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="14"/>
@@ -47259,13 +47259,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="14"/>
@@ -47315,18 +47315,18 @@
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="14"/>
       <c r="K83" s="16"/>
       <c r="L83" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="16"/>
       <c r="O83" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
@@ -47367,7 +47367,7 @@
       <c r="F84" s="14"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="14"/>
@@ -48456,6 +48456,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -48463,14 +48470,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -48486,8 +48486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1525-BDC1-4909-BA39-73257FF6FBB7}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -48496,152 +48496,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="83">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="94">
         <v>44351</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -51521,7 +51521,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -51573,7 +51573,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -52688,7 +52688,7 @@
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1">
       <c r="A109" s="7"/>
-      <c r="B109" s="86"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="12"/>
       <c r="D109" s="13"/>
       <c r="E109" s="14"/>
@@ -52895,6 +52895,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -52902,14 +52909,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -52935,156 +52935,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="84">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="95">
         <v>44351</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -56320,13 +56320,13 @@
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="14"/>
@@ -56415,7 +56415,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="12"/>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="59" t="s">
         <v>99</v>
       </c>
       <c r="E84" s="14"/>
@@ -57515,6 +57515,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -57522,14 +57529,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -57555,154 +57555,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="84">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="95">
         <v>44351</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -58054,9 +58054,9 @@
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -58081,9 +58081,9 @@
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
@@ -58108,9 +58108,9 @@
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -58135,36 +58135,36 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88" t="s">
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="Q16" s="88" t="s">
+      <c r="Q16" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="R16" s="90" t="s">
+      <c r="R16" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="S16" s="94"/>
+      <c r="S16" s="68"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="88" t="s">
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="AA16" s="88" t="s">
+      <c r="AA16" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="AB16" s="90" t="s">
+      <c r="AB16" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="AC16" s="94"/>
+      <c r="AC16" s="68"/>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
@@ -58184,40 +58184,40 @@
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="87" t="s">
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="89">
+      <c r="P17" s="63">
         <v>12</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q17" s="63">
         <v>3</v>
       </c>
-      <c r="R17" s="91">
+      <c r="R17" s="65">
         <v>1</v>
       </c>
-      <c r="S17" s="94"/>
+      <c r="S17" s="68"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
-      <c r="Y17" s="87" t="s">
+      <c r="Y17" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="Z17" s="89">
+      <c r="Z17" s="63">
         <v>12</v>
       </c>
-      <c r="AA17" s="89">
+      <c r="AA17" s="63">
         <v>3</v>
       </c>
-      <c r="AB17" s="91">
+      <c r="AB17" s="65">
         <v>1</v>
       </c>
-      <c r="AC17" s="94"/>
+      <c r="AC17" s="68"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -58237,40 +58237,40 @@
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="87" t="s">
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="89">
+      <c r="P18" s="63">
         <v>12</v>
       </c>
-      <c r="Q18" s="89">
+      <c r="Q18" s="63">
         <v>3</v>
       </c>
-      <c r="R18" s="91">
+      <c r="R18" s="65">
         <v>1</v>
       </c>
-      <c r="S18" s="94"/>
+      <c r="S18" s="68"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
-      <c r="Y18" s="87" t="s">
+      <c r="Y18" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="Z18" s="89">
+      <c r="Z18" s="63">
         <v>12</v>
       </c>
-      <c r="AA18" s="89">
+      <c r="AA18" s="63">
         <v>3</v>
       </c>
-      <c r="AB18" s="91">
+      <c r="AB18" s="65">
         <v>1</v>
       </c>
-      <c r="AC18" s="94"/>
+      <c r="AC18" s="68"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
@@ -58290,40 +58290,40 @@
       <c r="D19" s="22"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="87" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="89">
+      <c r="P19" s="63">
         <v>12</v>
       </c>
-      <c r="Q19" s="89">
+      <c r="Q19" s="63">
         <v>3</v>
       </c>
-      <c r="R19" s="91">
+      <c r="R19" s="65">
         <v>1</v>
       </c>
-      <c r="S19" s="94"/>
+      <c r="S19" s="68"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
-      <c r="Y19" s="87" t="s">
+      <c r="Y19" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="Z19" s="89">
+      <c r="Z19" s="63">
         <v>12</v>
       </c>
-      <c r="AA19" s="89">
+      <c r="AA19" s="63">
         <v>3</v>
       </c>
-      <c r="AB19" s="91">
+      <c r="AB19" s="65">
         <v>1</v>
       </c>
-      <c r="AC19" s="94"/>
+      <c r="AC19" s="68"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -58343,40 +58343,40 @@
       <c r="D20" s="22"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="87" t="s">
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="89">
+      <c r="P20" s="63">
         <v>12</v>
       </c>
-      <c r="Q20" s="89">
+      <c r="Q20" s="63">
         <v>3</v>
       </c>
-      <c r="R20" s="91">
+      <c r="R20" s="65">
         <v>1</v>
       </c>
-      <c r="S20" s="94"/>
+      <c r="S20" s="68"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="87" t="s">
+      <c r="Y20" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="Z20" s="89">
+      <c r="Z20" s="63">
         <v>12</v>
       </c>
-      <c r="AA20" s="89">
+      <c r="AA20" s="63">
         <v>3</v>
       </c>
-      <c r="AB20" s="91">
+      <c r="AB20" s="65">
         <v>1</v>
       </c>
-      <c r="AC20" s="94"/>
+      <c r="AC20" s="68"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
@@ -58396,40 +58396,40 @@
       <c r="D21" s="22"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="87" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="63">
         <v>12</v>
       </c>
-      <c r="Q21" s="89">
+      <c r="Q21" s="63">
         <v>3</v>
       </c>
-      <c r="R21" s="91">
+      <c r="R21" s="65">
         <v>1</v>
       </c>
-      <c r="S21" s="94"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
-      <c r="Y21" s="87" t="s">
+      <c r="Y21" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" s="89">
+      <c r="Z21" s="63">
         <v>12</v>
       </c>
-      <c r="AA21" s="89">
+      <c r="AA21" s="63">
         <v>3</v>
       </c>
-      <c r="AB21" s="91">
+      <c r="AB21" s="65">
         <v>1</v>
       </c>
-      <c r="AC21" s="94"/>
+      <c r="AC21" s="68"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
@@ -58449,40 +58449,40 @@
       <c r="D22" s="22"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="87" t="s">
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P22" s="63">
         <v>12</v>
       </c>
-      <c r="Q22" s="89">
+      <c r="Q22" s="63">
         <v>3</v>
       </c>
-      <c r="R22" s="91">
+      <c r="R22" s="65">
         <v>1</v>
       </c>
-      <c r="S22" s="94"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
-      <c r="Y22" s="87" t="s">
+      <c r="Y22" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="Z22" s="89">
+      <c r="Z22" s="63">
         <v>12</v>
       </c>
-      <c r="AA22" s="89">
+      <c r="AA22" s="63">
         <v>3</v>
       </c>
-      <c r="AB22" s="91">
+      <c r="AB22" s="65">
         <v>1</v>
       </c>
-      <c r="AC22" s="94"/>
+      <c r="AC22" s="68"/>
       <c r="AD22" s="21"/>
       <c r="AE22" s="21"/>
       <c r="AF22" s="21"/>
@@ -58510,37 +58510,37 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="87" t="s">
+      <c r="O23" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="P23" s="89">
+      <c r="P23" s="63">
         <v>12</v>
       </c>
-      <c r="Q23" s="89">
+      <c r="Q23" s="63">
         <v>3</v>
       </c>
-      <c r="R23" s="91">
+      <c r="R23" s="65">
         <v>1</v>
       </c>
-      <c r="S23" s="94"/>
+      <c r="S23" s="68"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
-      <c r="Y23" s="87" t="s">
+      <c r="Y23" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="Z23" s="89">
+      <c r="Z23" s="63">
         <v>12</v>
       </c>
-      <c r="AA23" s="89">
+      <c r="AA23" s="63">
         <v>3</v>
       </c>
-      <c r="AB23" s="91">
+      <c r="AB23" s="65">
         <v>1</v>
       </c>
-      <c r="AC23" s="94"/>
+      <c r="AC23" s="68"/>
       <c r="AD23" s="21"/>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
@@ -58568,37 +58568,37 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="87" t="s">
+      <c r="O24" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="P24" s="89">
+      <c r="P24" s="63">
         <v>12</v>
       </c>
-      <c r="Q24" s="89">
+      <c r="Q24" s="63">
         <v>3</v>
       </c>
-      <c r="R24" s="91">
+      <c r="R24" s="65">
         <v>1</v>
       </c>
-      <c r="S24" s="94"/>
+      <c r="S24" s="68"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
-      <c r="Y24" s="87" t="s">
+      <c r="Y24" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="Z24" s="89">
+      <c r="Z24" s="63">
         <v>12</v>
       </c>
-      <c r="AA24" s="89">
+      <c r="AA24" s="63">
         <v>3</v>
       </c>
-      <c r="AB24" s="91">
+      <c r="AB24" s="65">
         <v>1</v>
       </c>
-      <c r="AC24" s="94"/>
+      <c r="AC24" s="68"/>
       <c r="AD24" s="21"/>
       <c r="AE24" s="21"/>
       <c r="AF24" s="21"/>
@@ -58626,37 +58626,37 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="87" t="s">
+      <c r="O25" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="89">
+      <c r="P25" s="63">
         <v>12</v>
       </c>
-      <c r="Q25" s="89">
+      <c r="Q25" s="63">
         <v>3</v>
       </c>
-      <c r="R25" s="91">
+      <c r="R25" s="65">
         <v>1</v>
       </c>
-      <c r="S25" s="94"/>
+      <c r="S25" s="68"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
-      <c r="Y25" s="87" t="s">
+      <c r="Y25" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="Z25" s="89">
+      <c r="Z25" s="63">
         <v>12</v>
       </c>
-      <c r="AA25" s="89">
+      <c r="AA25" s="63">
         <v>3</v>
       </c>
-      <c r="AB25" s="91">
+      <c r="AB25" s="65">
         <v>1</v>
       </c>
-      <c r="AC25" s="94"/>
+      <c r="AC25" s="68"/>
       <c r="AD25" s="21"/>
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
@@ -58683,37 +58683,37 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="87" t="s">
+      <c r="O26" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="89">
+      <c r="P26" s="63">
         <v>12</v>
       </c>
-      <c r="Q26" s="89">
+      <c r="Q26" s="63">
         <v>3</v>
       </c>
-      <c r="R26" s="91">
+      <c r="R26" s="65">
         <v>1</v>
       </c>
-      <c r="S26" s="94"/>
+      <c r="S26" s="68"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
-      <c r="Y26" s="87" t="s">
+      <c r="Y26" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="Z26" s="89">
+      <c r="Z26" s="63">
         <v>12</v>
       </c>
-      <c r="AA26" s="89">
+      <c r="AA26" s="63">
         <v>3</v>
       </c>
-      <c r="AB26" s="91">
+      <c r="AB26" s="65">
         <v>1</v>
       </c>
-      <c r="AC26" s="94"/>
+      <c r="AC26" s="68"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
@@ -58740,37 +58740,37 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
-      <c r="O27" s="87" t="s">
+      <c r="O27" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="P27" s="89">
+      <c r="P27" s="63">
         <v>12</v>
       </c>
-      <c r="Q27" s="89">
+      <c r="Q27" s="63">
         <v>3</v>
       </c>
-      <c r="R27" s="91">
+      <c r="R27" s="65">
         <v>1</v>
       </c>
-      <c r="S27" s="94"/>
+      <c r="S27" s="68"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
-      <c r="Y27" s="87" t="s">
+      <c r="Y27" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="Z27" s="89">
+      <c r="Z27" s="63">
         <v>12</v>
       </c>
-      <c r="AA27" s="89">
+      <c r="AA27" s="63">
         <v>3</v>
       </c>
-      <c r="AB27" s="91">
+      <c r="AB27" s="65">
         <v>1</v>
       </c>
-      <c r="AC27" s="94"/>
+      <c r="AC27" s="68"/>
       <c r="AD27" s="21"/>
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
@@ -58797,37 +58797,37 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="87" t="s">
+      <c r="O28" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="89">
+      <c r="P28" s="63">
         <v>12</v>
       </c>
-      <c r="Q28" s="89">
+      <c r="Q28" s="63">
         <v>3</v>
       </c>
-      <c r="R28" s="91">
+      <c r="R28" s="65">
         <v>1</v>
       </c>
-      <c r="S28" s="94"/>
+      <c r="S28" s="68"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
-      <c r="Y28" s="87" t="s">
+      <c r="Y28" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="Z28" s="89">
+      <c r="Z28" s="63">
         <v>12</v>
       </c>
-      <c r="AA28" s="89">
+      <c r="AA28" s="63">
         <v>3</v>
       </c>
-      <c r="AB28" s="91">
+      <c r="AB28" s="65">
         <v>1</v>
       </c>
-      <c r="AC28" s="94"/>
+      <c r="AC28" s="68"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
@@ -58854,37 +58854,37 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
-      <c r="O29" s="87" t="s">
+      <c r="O29" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="P29" s="89">
+      <c r="P29" s="63">
         <v>12</v>
       </c>
-      <c r="Q29" s="89">
+      <c r="Q29" s="63">
         <v>3</v>
       </c>
-      <c r="R29" s="91">
+      <c r="R29" s="65">
         <v>1</v>
       </c>
-      <c r="S29" s="94"/>
+      <c r="S29" s="68"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
-      <c r="Y29" s="87" t="s">
+      <c r="Y29" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="Z29" s="89">
+      <c r="Z29" s="63">
         <v>12</v>
       </c>
-      <c r="AA29" s="89">
+      <c r="AA29" s="63">
         <v>3</v>
       </c>
-      <c r="AB29" s="91">
+      <c r="AB29" s="65">
         <v>1</v>
       </c>
-      <c r="AC29" s="94"/>
+      <c r="AC29" s="68"/>
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
@@ -58911,37 +58911,37 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="87" t="s">
+      <c r="O30" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="89">
+      <c r="P30" s="63">
         <v>12</v>
       </c>
-      <c r="Q30" s="89">
+      <c r="Q30" s="63">
         <v>3</v>
       </c>
-      <c r="R30" s="91">
+      <c r="R30" s="65">
         <v>1</v>
       </c>
-      <c r="S30" s="94"/>
+      <c r="S30" s="68"/>
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
-      <c r="Y30" s="87" t="s">
+      <c r="Y30" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="Z30" s="89">
+      <c r="Z30" s="63">
         <v>12</v>
       </c>
-      <c r="AA30" s="89">
+      <c r="AA30" s="63">
         <v>3</v>
       </c>
-      <c r="AB30" s="91">
+      <c r="AB30" s="65">
         <v>1</v>
       </c>
-      <c r="AC30" s="94"/>
+      <c r="AC30" s="68"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
@@ -61158,13 +61158,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="14"/>
@@ -62333,154 +62333,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="60"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="82">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="93">
         <v>44350</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="64"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="81"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -65529,13 +65529,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="14"/>
@@ -65583,7 +65583,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="14"/>
@@ -65631,7 +65631,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="14"/>
@@ -65673,13 +65673,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="14"/>
@@ -65720,14 +65720,14 @@
       <c r="C83" s="12">
         <v>5</v>
       </c>
-      <c r="D83" s="95" t="s">
-        <v>170</v>
+      <c r="D83" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="14"/>
@@ -65769,13 +65769,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="14"/>
@@ -65817,13 +65817,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="14"/>
@@ -65865,13 +65865,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="14"/>
@@ -65913,13 +65913,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="12"/>
       <c r="H87" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="14"/>
@@ -65961,13 +65961,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="12"/>
       <c r="H88" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I88" s="15"/>
       <c r="J88" s="14"/>
@@ -66009,13 +66009,13 @@
         <v>11</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="12"/>
       <c r="H89" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="14"/>
@@ -66063,7 +66063,7 @@
       <c r="F90" s="14"/>
       <c r="G90" s="12"/>
       <c r="H90" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="14"/>
@@ -66111,7 +66111,7 @@
       <c r="F91" s="14"/>
       <c r="G91" s="12"/>
       <c r="H91" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="14"/>
@@ -66153,13 +66153,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="12"/>
       <c r="H92" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="14"/>
@@ -66910,6 +66910,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -66917,14 +66924,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
